--- a/medicine/Mort/Liste_de_parlementaires_néo-zélandais_aux_deux_guerres_mondiales/Liste_de_parlementaires_néo-zélandais_aux_deux_guerres_mondiales.xlsx
+++ b/medicine/Mort/Liste_de_parlementaires_néo-zélandais_aux_deux_guerres_mondiales/Liste_de_parlementaires_néo-zélandais_aux_deux_guerres_mondiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_parlementaires_n%C3%A9o-z%C3%A9landais_aux_deux_guerres_mondiales</t>
+          <t>Liste_de_parlementaires_néo-zélandais_aux_deux_guerres_mondiales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Nouvelle-Zélande, alors dominion membre de l'Empire britannique, participe activement aux deux guerres mondiales du XXe siècle. Près de 100 000 Néo-Zélandais prennent part à la New Zealand Expeditionary Force lors de la Première Guerre mondiale, dont quelque 2 200 Maoris ; environ 18 000 sont tués et 41 000 blessés ou malades. Cette participation à la « Grande Guerre » a d'importantes répercussions sur l'histoire de la Nouvelle-Zélande[1]. Lors de la Seconde Guerre mondiale, ayant été reconnue comme État souverain, la Nouvelle-Zélande déclare séparément et formellement la guerre à l'Allemagne nazie le 3 septembre 1939. Quelque 140 000 Néo-Zélandais participent aux forces armées, parmi lesquels 11 928 sont tués[2].
-Cinq membres de la Chambre des représentants de Nouvelle-Zélande et un membre du Conseil législatif s'engagent dans les forces armées durant la Première Guerre mondiale ; l'un est tué, deux sont blessés et un quatrième est handicapé à vie par une maladie contractée durant le service. La Seconde Guerre mondiale voit treize membres de la Chambre des représentants et un membre du Conseil législatif participer aux forces armées ; cinq sont tués[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Nouvelle-Zélande, alors dominion membre de l'Empire britannique, participe activement aux deux guerres mondiales du XXe siècle. Près de 100 000 Néo-Zélandais prennent part à la New Zealand Expeditionary Force lors de la Première Guerre mondiale, dont quelque 2 200 Maoris ; environ 18 000 sont tués et 41 000 blessés ou malades. Cette participation à la « Grande Guerre » a d'importantes répercussions sur l'histoire de la Nouvelle-Zélande. Lors de la Seconde Guerre mondiale, ayant été reconnue comme État souverain, la Nouvelle-Zélande déclare séparément et formellement la guerre à l'Allemagne nazie le 3 septembre 1939. Quelque 140 000 Néo-Zélandais participent aux forces armées, parmi lesquels 11 928 sont tués.
+Cinq membres de la Chambre des représentants de Nouvelle-Zélande et un membre du Conseil législatif s'engagent dans les forces armées durant la Première Guerre mondiale ; l'un est tué, deux sont blessés et un quatrième est handicapé à vie par une maladie contractée durant le service. La Seconde Guerre mondiale voit treize membres de la Chambre des représentants et un membre du Conseil législatif participer aux forces armées ; cinq sont tués.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_parlementaires_n%C3%A9o-z%C3%A9landais_aux_deux_guerres_mondiales</t>
+          <t>Liste_de_parlementaires_néo-zélandais_aux_deux_guerres_mondiales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les parlementaires engagés dans les forces armées durant ces deux guerres sont[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parlementaires engagés dans les forces armées durant ces deux guerres sont :
 Première Guerre mondiale
 Seconde Guerre mondiale
 </t>
